--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12015"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="201">
   <si>
     <t>Location.ID</t>
   </si>
@@ -333,9 +333,6 @@
     <t>2-0</t>
   </si>
   <si>
-    <t>Win:0; Done:0</t>
-  </si>
-  <si>
     <t>Выйти в дверь</t>
   </si>
   <si>
@@ -541,11 +538,6 @@
   </si>
   <si>
     <t>"Щит" in P.Inventory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вы вешаете подкову на дверь. Она сама поворачивается вокруг своей оси и замирает...  
-Неожиданно раздаётся скрип и дверь открывается. 
-Из-за двери разливается красное свечение, у вас темнеет в глазах и кружится голова от столь яркого света.... </t>
   </si>
   <si>
     <t>Скелет внимательно ещё раз на вас смотрит и оценивающе наклоняет голову влево. После чего выпрямляется и завершает удар со всей силой. 
@@ -570,6 +562,77 @@
   </si>
   <si>
     <t>P.Health-=25; P.Effects.append("Toxin")</t>
+  </si>
+  <si>
+    <t>Швырнуть железку</t>
+  </si>
+  <si>
+    <t>Швырнуть подкову</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы разбиваете окно, осколки стекла разлетаются во все стороны, хорошо, что вы отошли и кинули издалека. Ну и что дальше? </t>
+  </si>
+  <si>
+    <t>L.Var.update({'Win':1})</t>
+  </si>
+  <si>
+    <t>Взять осколок</t>
+  </si>
+  <si>
+    <t>Вы подбираете осколок стекла. Вы конечно пытались осторожно, но… в общем не умеете вы обращаться с острыми предметами. Свыкнитесь)</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>Покрутить осколок</t>
+  </si>
+  <si>
+    <t>P.Health-=3; P.Inventory.append('Осколок')</t>
+  </si>
+  <si>
+    <t>Ауч! Вы порезались, кровь капает на пол, ваши руки в крови. Ух, ваши руки остаются липкими от крови на пару секунд. Уберём-ка пока стекло в карман, а</t>
+  </si>
+  <si>
+    <t>Сесть отдохнуть</t>
+  </si>
+  <si>
+    <t>Взять в руки подкову</t>
+  </si>
+  <si>
+    <t>P.Health-=5; L.Var.update({'Pos':"Door"})</t>
+  </si>
+  <si>
+    <t>"Осколок" in P.Inventory</t>
+  </si>
+  <si>
+    <t>not "Осколок" in P.Inventory</t>
+  </si>
+  <si>
+    <t>Вы берёте подкову своей окровавленной рукой. Подкова начинается ярко светиться от взаимодействия с кровью. Не сильно понятно что с этим делать. Свечение тускнеет по мере застывания крови…</t>
+  </si>
+  <si>
+    <t>L.Var.get('Pos') == "Door"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы вешаете окровавленную подкову на дверь. Она сама поворачивается вокруг своей оси и замирает...  
+Неожиданно раздаётся скрип и дверь открывается. 
+Из-за двери разливается красное свечение, у вас темнеет в глазах и кружится голова от столь яркого света.... </t>
+  </si>
+  <si>
+    <t>Хм, подкова вроде пришлась по месту, но… Дверь всё ещё закрыта. Чего-то тут не хватает…</t>
+  </si>
+  <si>
+    <t>L.Var.update({'Pos':0})</t>
+  </si>
+  <si>
+    <t>Win:0; Pos:0; Done:0</t>
+  </si>
+  <si>
+    <t>P.Health-=13</t>
+  </si>
+  <si>
+    <t>Сесть подумать</t>
   </si>
 </sst>
 </file>
@@ -815,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -829,24 +892,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -867,13 +916,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,14 +951,117 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="165">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1025,13 +1171,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1145,13 +1284,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -1265,7 +1397,911 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1545,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R104"/>
+  <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,57 +2593,58 @@
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.140625" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1646,7 +2683,7 @@
         <v>25</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="42">
+      <c r="M2" s="26">
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -1660,29 +2697,29 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29">
-        <v>1</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32">
-        <v>1</v>
-      </c>
-      <c r="K3" s="32" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="43" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="27" t="s">
         <v>74</v>
       </c>
       <c r="O3" t="s">
@@ -1706,9 +2743,9 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="15">
+        <v>198</v>
+      </c>
+      <c r="E4" s="52">
         <v>0</v>
       </c>
       <c r="F4" s="5"/>
@@ -1726,8 +2763,12 @@
         <v>10</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="44">
+      <c r="M4" s="28">
         <v>2</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N9" si="0">VLOOKUP(M4,$E$4:$G$74,3)</f>
+        <v>Вы с разбегу влетаете в дверь, пытаясь её вышибить, поворачиваете ручку, колотите по петлям - всё без толку. Дверь не поддаётся. Кажется, она даже не сотрясается от ваших ударов.</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -1744,7 +2785,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1756,8 +2797,12 @@
         <v>11</v>
       </c>
       <c r="L5" s="7"/>
-      <c r="M5" s="45">
+      <c r="M5" s="29">
         <v>4</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>Вы подбегаете к окну. Это старое грязное окно в деревяной раме. Вы пытаетесь его открыть, но оно заколочено. Что же делать?</v>
       </c>
       <c r="O5" t="s">
         <v>59</v>
@@ -1771,7 +2816,7 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -1783,8 +2828,12 @@
         <v>12</v>
       </c>
       <c r="L6" s="7"/>
-      <c r="M6" s="45">
+      <c r="M6" s="29">
         <v>9</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Осматривая, а скорее даже ощупывая комнату, вы находите и открываете шкаф. Двери тяжёлые и жутко скрипят в полной тишине, от чего вы вздрагиваете, но выдохнув, открываете шкаф доконца. Вы ощупываете все полки, но чувствуете только холодное дерево. На нижней полке вы всё таки находите какой-то холодный, наверное железный, предмет. Положим его пока в карман. </v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1792,14 +2841,16 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="17">
+      <c r="E7" s="54">
         <v>1</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7">
         <v>1</v>
@@ -1808,10 +2859,14 @@
         <v>89</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="45">
+        <v>103</v>
+      </c>
+      <c r="M7" s="29">
         <v>2</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>Вы с разбегу влетаете в дверь, пытаясь её вышибить, поворачиваете ручку, колотите по петлям - всё без толку. Дверь не поддаётся. Кажется, она даже не сотрясается от ваших ударов.</v>
       </c>
       <c r="O7" t="s">
         <v>51</v>
@@ -1819,7 +2874,7 @@
       <c r="P7" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="70" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1828,7 +2883,7 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="13"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1840,20 +2895,24 @@
         <v>90</v>
       </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="45">
+      <c r="M8" s="29">
         <v>7</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
-      <c r="R8" s="35"/>
+      <c r="R8" s="70"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="13"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -1865,8 +2924,12 @@
         <v>12</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="45">
+      <c r="M9" s="29">
         <v>9</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Осматривая, а скорее даже ощупывая комнату, вы находите и открываете шкаф. Двери тяжёлые и жутко скрипят в полной тишине, от чего вы вздрагиваете, но выдохнув, открываете шкаф доконца. Вы ощупываете все полки, но чувствуете только холодное дерево. На нижней полке вы всё таки находите какой-то холодный, наверное железный, предмет. Положим его пока в карман. </v>
       </c>
       <c r="O9" t="s">
         <v>58</v>
@@ -1874,112 +2937,121 @@
       <c r="P9" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="35"/>
+      <c r="R9" s="70"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="13"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="26">
+      <c r="J10" s="14">
         <v>4</v>
       </c>
-      <c r="K10" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="R10" s="34"/>
+      <c r="K10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="29">
+        <v>19</v>
+      </c>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="45">
-        <v>1</v>
-      </c>
-      <c r="R11" s="25"/>
+      <c r="J11" s="14">
+        <v>5</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" t="e">
+        <f>VLOOKUP(M11,$E$4:$G$74,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E12" s="55">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="45">
-        <v>3</v>
-      </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
-      <c r="R12" t="s">
-        <v>49</v>
-      </c>
+      <c r="M12" s="29">
+        <v>1</v>
+      </c>
+      <c r="N12" t="str">
+        <f>VLOOKUP(M12,$E$4:$G$74,3)</f>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="18">
-        <v>3</v>
-      </c>
+      <c r="E13" s="53"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="45">
-        <v>1</v>
+      <c r="M13" s="29">
+        <v>3</v>
+      </c>
+      <c r="N13" t="str">
+        <f>VLOOKUP(M13,$E$4:$G$74,3)</f>
+        <v>Вы снова бьёте в дверь. Дверь не поддаётся. Кажется, она даже не сотрясается от ваших ударов. Вы разбиваете кулаки в кровь. Вам не надоело?</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1987,23 +3059,22 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="13"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="J14" s="7">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="45">
+      <c r="J14" s="14">
         <v>3</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>50</v>
+      <c r="K14" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14" s="29">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2011,150 +3082,170 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="13"/>
+      <c r="E15" s="56">
+        <v>3</v>
+      </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="26">
-        <v>3</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>92</v>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="45">
-        <v>14</v>
-      </c>
-      <c r="P15" s="1"/>
+      <c r="M15" s="29">
+        <v>1</v>
+      </c>
+      <c r="N15" t="str">
+        <f>VLOOKUP(M15,$E$4:$G$74,3)</f>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="13"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="26">
-        <v>4</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="1"/>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="29">
+        <v>3</v>
+      </c>
+      <c r="N16" t="str">
+        <f>VLOOKUP(M16,$E$4:$G$74,3)</f>
+        <v>Вы снова бьёте в дверь. Дверь не поддаётся. Кажется, она даже не сотрясается от ваших ударов. Вы разбиваете кулаки в кровь. Вам не надоело?</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="19">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
+      <c r="J17" s="14">
+        <v>3</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="45">
-        <v>5</v>
-      </c>
-      <c r="P17" t="s">
-        <v>52</v>
-      </c>
+      <c r="M17" s="29">
+        <v>14</v>
+      </c>
+      <c r="N17" t="str">
+        <f>VLOOKUP(M17,$E$4:$G$74,3)</f>
+        <v>Проведя по шершавой деревянной двери рукой, вы натыкаетесь на гвоздь чуть выше вашей головы. Интересно, а можно ли вбить его?</v>
+      </c>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="7">
-        <v>2</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="45">
-        <v>6</v>
-      </c>
-      <c r="P18" t="s">
-        <v>54</v>
-      </c>
+      <c r="J18" s="14">
+        <v>4</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="29">
+        <v>19</v>
+      </c>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="13"/>
+      <c r="E19" s="53"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="7">
-        <v>3</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="45">
-        <v>1</v>
-      </c>
-      <c r="P19" t="s">
-        <v>55</v>
-      </c>
+      <c r="J19" s="14">
+        <v>5</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" t="e">
+        <f t="shared" ref="N19:N43" si="1">VLOOKUP(M19,$E$4:$G$74,3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="20">
-        <v>5</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="E20" s="57">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>82</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="45">
-        <v>11</v>
+      <c r="M20" s="29">
+        <v>5</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2162,23 +3253,26 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="7">
+      <c r="J21" s="14">
         <v>2</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="45">
-        <v>6</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>56</v>
+      <c r="K21" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" s="29">
+        <v>51</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>Хм, подкова вроде пришлась по месту, но… Дверь всё ещё закрыта. Чего-то тут не хватает…</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2186,26 +3280,26 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="7">
+      <c r="J22" s="14">
         <v>3</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="45">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>84</v>
-      </c>
-      <c r="R22" t="s">
-        <v>57</v>
+      <c r="K22" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" s="29">
+        <v>51</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>Хм, подкова вроде пришлась по месту, но… Дверь всё ещё закрыта. Чего-то тут не хватает…</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2213,22 +3307,27 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="13"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="26">
+      <c r="J23" s="7">
         <v>4</v>
       </c>
-      <c r="K23" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M23" s="45">
-        <v>13</v>
+      <c r="K23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="29">
+        <v>6</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
+      </c>
+      <c r="P23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2236,24 +3335,27 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="21">
-        <v>6</v>
-      </c>
+      <c r="E24" s="53"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="45">
-        <v>7</v>
+      <c r="M24" s="29">
+        <v>1</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+      <c r="P24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2261,28 +3363,30 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="23">
-        <v>7</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>81</v>
-      </c>
+      <c r="E25" s="59">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7">
         <v>1</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M25" s="45">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="29">
+        <v>11</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">В слабом свете луны вы видите каменную стену с парой окон ниже вашего. Кажется вы находитесь в каком-то здании (может в замке?) на третьем этаже. Внизу растёт ряд больших кустов, за ними поле выской травы, а вдаль до горизонта уходит тёмный лес, над которым возвышается полная луна. </v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2290,7 +3394,7 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -2302,8 +3406,15 @@
         <v>21</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="45">
+      <c r="M26" s="29">
         <v>6</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2311,7 +3422,7 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="13"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2323,8 +3434,18 @@
         <v>13</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="45">
-        <v>1</v>
+      <c r="M27" s="29">
+        <v>1</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2332,22 +3453,26 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="26">
+      <c r="J28" s="14">
         <v>4</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M28" s="45">
+      <c r="L28" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M28" s="29">
         <v>13</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы пытаетесь осмотреть железку на слабом свету, это что-то похожее на… Подкову? Хм, ну ладно. </v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2355,26 +3480,26 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="22">
-        <v>8</v>
-      </c>
+      <c r="E29" s="53"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="45">
-        <v>6</v>
+      <c r="J29" s="14">
+        <v>5</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" s="29">
+        <v>52</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="1"/>
+        <v>Хм, подкова вроде пришлась по месту, но… Дверь всё ещё закрыта. Чего-то тут не хватает…</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2382,20 +3507,30 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="59">
+        <v>51</v>
+      </c>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="45">
+      <c r="M30" s="29">
         <v>11</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">В слабом свете луны вы видите каменную стену с парой окон ниже вашего. Кажется вы находитесь в каком-то здании (может в замке?) на третьем этаже. Внизу растёт ряд больших кустов, за ними поле выской травы, а вдаль до горизонта уходит тёмный лес, над которым возвышается полная луна. </v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2403,20 +3538,24 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="13"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="45">
-        <v>1</v>
+      <c r="M31" s="29">
+        <v>6</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2424,1251 +3563,1959 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="26">
-        <v>4</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="L32" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M32" s="45">
+      <c r="J32" s="7">
+        <v>3</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" s="7"/>
+      <c r="M32" s="29">
+        <v>1</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="24">
-        <v>9</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="26">
-        <v>1</v>
-      </c>
-      <c r="K33" s="26" t="s">
+      <c r="J33" s="14">
+        <v>4</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M33" s="29">
         <v>13</v>
       </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы пытаетесь осмотреть железку на слабом свету, это что-то похожее на… Подкову? Хм, ну ладно. </v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
-      <c r="E34" s="27">
-        <v>10</v>
-      </c>
+      <c r="E34" s="53"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="26">
-        <v>1</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="14">
+        <v>5</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="M34" s="29">
+        <v>52</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="1"/>
+        <v>Хм, подкова вроде пришлась по месту, но… Дверь всё ещё закрыта. Чего-то тут не хватает…</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="28">
-        <v>11</v>
+      <c r="E35" s="53">
+        <v>52</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="26">
-        <v>1</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="14">
+        <v>1</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" s="16"/>
+      <c r="M35" s="29">
+        <v>7</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="13"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="26">
+      <c r="J36" s="14">
         <v>2</v>
       </c>
-      <c r="K36" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="L36" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M36" s="46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K36" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" s="29">
+        <v>19</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="1"/>
+        <v>Ауч! Вы порезались, кровь капает на пол, ваши руки в крови. Ух, ваши руки остаются липкими от крови на пару секунд. Уберём-ка пока стекло в карман, а</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="13"/>
+      <c r="E37" s="60">
+        <v>6</v>
+      </c>
       <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="26">
-        <v>3</v>
-      </c>
-      <c r="K37" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="M37" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="29">
+        <v>7</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="E38" s="61">
+        <v>7</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="26">
-        <v>4</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="29">
+        <v>5</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="29">
-        <v>12</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="26">
-        <v>1</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="14">
+        <v>2</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M39" s="29">
+        <v>51</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="1"/>
+        <v>Хм, подкова вроде пришлась по месту, но… Дверь всё ещё закрыта. Чего-то тут не хватает…</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="62">
-        <v>13</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="7">
-        <v>1</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="14">
+        <v>3</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" s="29">
+        <v>51</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="1"/>
+        <v>Хм, подкова вроде пришлась по месту, но… Дверь всё ещё закрыта. Чего-то тут не хватает…</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="13">
-        <v>14</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="26">
-        <v>1</v>
-      </c>
-      <c r="K41" s="26" t="s">
-        <v>70</v>
+      <c r="J41" s="7">
+        <v>4</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="L41" s="7"/>
-      <c r="M41" s="46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="29">
+        <v>6</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="26">
-        <v>2</v>
-      </c>
-      <c r="K42" s="26" t="s">
+      <c r="J42" s="7">
+        <v>5</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L42" s="7"/>
-      <c r="M42" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="29">
+        <v>1</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="13">
-        <v>15</v>
-      </c>
+      <c r="E43" s="53"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="26">
-        <v>1</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="14">
+        <v>6</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M43" s="29">
+        <v>13</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Вы пытаетесь осмотреть железку на слабом свету, это что-то похожее на… Подкову? Хм, ну ладно. </v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="13"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="26">
-        <v>2</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="L44" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="M44" s="36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="14">
+        <v>7</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M44" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="13"/>
+      <c r="E45" s="63">
+        <v>8</v>
+      </c>
       <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="I45" s="7"/>
-      <c r="J45" s="26">
-        <v>3</v>
-      </c>
-      <c r="K45" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="L45" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="M45" s="36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="29">
+        <v>6</v>
+      </c>
+      <c r="N45" t="str">
+        <f>VLOOKUP(M45,$E$4:$G$74,3)</f>
+        <v xml:space="preserve">Вы разбиваете окно и получаете кучу порезов осколками стекла. Вам следует быть аккуратнее, если не хотите истечь кровью. Ну и что дальше? </v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="13"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="26">
-        <v>4</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>13</v>
+      <c r="J46" s="7">
+        <v>2</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="L46" s="7"/>
-      <c r="M46" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="29">
+        <v>11</v>
+      </c>
+      <c r="N46" t="str">
+        <f>VLOOKUP(M46,$E$4:$G$74,3)</f>
+        <v xml:space="preserve">В слабом свете луны вы видите каменную стену с парой окон ниже вашего. Кажется вы находитесь в каком-то здании (может в замке?) на третьем этаже. Внизу растёт ряд больших кустов, за ними поле выской травы, а вдаль до горизонта уходит тёмный лес, над которым возвышается полная луна. </v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="13">
-        <v>16</v>
-      </c>
+      <c r="E47" s="53"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>136</v>
-      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="26">
-        <v>1</v>
-      </c>
-      <c r="K47" s="26" t="s">
+      <c r="J47" s="7">
+        <v>3</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="29">
+        <v>1</v>
+      </c>
+      <c r="N47" t="str">
+        <f>VLOOKUP(M47,$E$4:$G$74,3)</f>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="13">
-        <v>17</v>
-      </c>
+      <c r="E48" s="53"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>134</v>
-      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="26">
-        <v>1</v>
-      </c>
-      <c r="K48" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J48" s="14">
+        <v>4</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M48" s="29">
+        <v>13</v>
+      </c>
+      <c r="N48" t="str">
+        <f>VLOOKUP(M48,$E$4:$G$74,3)</f>
+        <v xml:space="preserve">Вы пытаетесь осмотреть железку на слабом свету, это что-то похожее на… Подкову? Хм, ну ладно. </v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="13">
-        <v>18</v>
-      </c>
+      <c r="E49" s="53"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="26">
-        <v>1</v>
-      </c>
-      <c r="K49" s="26" t="s">
+      <c r="J49" s="14">
+        <v>5</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="M49" s="29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="64">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="14">
+        <v>1</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="30">
+        <v>1</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" ref="N50:N59" si="2">VLOOKUP(M50,$E$4:$G$74,3)</f>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="65">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="14">
+        <v>1</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="30">
+        <v>1</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="66">
+        <v>11</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="14">
+        <v>1</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N52" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="14">
+        <v>2</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M53" s="30">
+        <v>12</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="2"/>
+        <v>Вы выкинули железку из окна и наблюдаете за её полётом, всё равно больше вам смотреть не на что. Красиво летит…. СТОП. ЧТО?! Она приближается??!! Чёрт, она летит обратно! АЙ!!! *Ваша голова раскалывается от боли, боюсь, эта шишка на долго...*</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="14">
+        <v>3</v>
+      </c>
+      <c r="K54" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M54" s="22">
+        <v>12</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="2"/>
+        <v>Вы выкинули железку из окна и наблюдаете за её полётом, всё равно больше вам смотреть не на что. Красиво летит…. СТОП. ЧТО?! Она приближается??!! Чёрт, она летит обратно! АЙ!!! *Ваша голова раскалывается от боли, боюсь, эта шишка на долго...*</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="14">
+        <v>4</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="30">
+        <v>1</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="67">
+        <v>12</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="14">
+        <v>1</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="30">
+        <v>1</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="68">
+        <v>13</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="30">
+        <v>1</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="53">
+        <v>14</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="14">
+        <v>1</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L58" s="7"/>
+      <c r="M58" s="30">
+        <v>15</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Ай! Больно же! Руки для этого не предназначены. Может есть что покрепче? Кстати, кровь на гвозде странно светится… Ну да ладно. </v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="14">
+        <v>2</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="30">
+        <v>1</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="14">
+        <v>3</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M60" s="29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="53">
+        <v>15</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="14">
+        <v>1</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L61" s="7"/>
+      <c r="M61" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="N61" t="e">
+        <f>VLOOKUP(M61,$E$4:$G$74,3)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="14">
+        <v>2</v>
+      </c>
+      <c r="K62" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M62" s="22">
+        <v>16</v>
+      </c>
+      <c r="N62" t="str">
+        <f>VLOOKUP(M62,$E$4:$G$74,3)</f>
+        <v>Вы ударяете железкой, но она неожиданно приклеивается к двери. Вы пытаетесь оторвать её, но это бесполезно - она как будто приварена к двери. Вы бьёте по двери ещё раз и железка падает. Хм, что-то тут не так.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="14">
+        <v>3</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="M63" s="29">
+        <v>19</v>
+      </c>
+      <c r="N63" t="str">
+        <f>VLOOKUP(M63,$E$4:$G$74,3)</f>
+        <v>Ауч! Вы порезались, кровь капает на пол, ваши руки в крови. Ух, ваши руки остаются липкими от крови на пару секунд. Уберём-ка пока стекло в карман, а</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="14">
+        <v>4</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M64" s="29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="14">
+        <v>5</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="30">
+        <v>1</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" ref="N65:N70" si="3">VLOOKUP(M65,$E$4:$G$74,3)</f>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="53">
+        <v>16</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="14">
+        <v>1</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="22">
+        <v>1</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="53">
+        <v>17</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="14">
+        <v>1</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N67" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="53">
+        <v>18</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="14">
+        <v>1</v>
+      </c>
+      <c r="K68" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L68" s="7"/>
+      <c r="M68" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="N68" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="14">
+        <v>2</v>
+      </c>
+      <c r="K69" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L49" s="7"/>
-      <c r="M49" s="38" t="s">
+      <c r="L69" s="7"/>
+      <c r="M69" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N69" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="53">
+        <v>19</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="14">
+        <v>1</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L70" s="7"/>
+      <c r="M70" s="22">
+        <v>1</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Вы сели на уже родную холодную лавку. Продышитесь и продолжайте. </v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="14">
+        <v>2</v>
+      </c>
+      <c r="K71" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M71" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="53">
+        <v>20</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="14">
+        <v>1</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L72" s="7"/>
+      <c r="M72" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="14">
+        <v>2</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M73" s="22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="69">
+        <v>21</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="19">
+        <v>1</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L74" s="9"/>
+      <c r="M74" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" s="34">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J75" s="14">
+        <v>1</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M75" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J76" s="14">
+        <v>2</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M76" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J77" s="14">
+        <v>3</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M77" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E78" s="33">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="33">
+      <c r="J78" s="14">
+        <v>1</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M78" s="23">
         <v>2</v>
       </c>
-      <c r="K50" s="33" t="s">
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J79" s="14">
+        <v>2</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M79" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E80" s="32">
+        <v>2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>111</v>
+      </c>
+      <c r="J80" s="14">
+        <v>1</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M80" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J81" s="14">
+        <v>2</v>
+      </c>
+      <c r="K81" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M81" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E82" s="35">
+        <v>3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>113</v>
+      </c>
+      <c r="J82" s="14">
+        <v>1</v>
+      </c>
+      <c r="K82" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M82" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E83" s="36">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>119</v>
+      </c>
+      <c r="J83" s="14">
+        <v>1</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M83" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J84" s="14">
+        <v>2</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M84" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J85" s="14">
+        <v>3</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M85" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J86" s="14">
+        <v>4</v>
+      </c>
+      <c r="K86" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M86" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J87" s="14">
+        <v>5</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M87" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E88" s="37">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J88" s="14">
+        <v>1</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M88" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J89" s="14">
+        <v>2</v>
+      </c>
+      <c r="K89" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="M89" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J90" s="14">
+        <v>3</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M90" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E91" s="38">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>123</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J91" s="14">
+        <v>1</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M91" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J92" s="14">
         <v>2</v>
       </c>
-      <c r="B51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="K92" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M92" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J93" s="14">
+        <v>3</v>
+      </c>
+      <c r="K93" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M93" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E94" s="39">
+        <v>7</v>
+      </c>
+      <c r="G94" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="H94" t="s">
+        <v>86</v>
+      </c>
+      <c r="J94" s="14">
+        <v>1</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M94" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E95" s="40">
+        <v>8</v>
+      </c>
+      <c r="G95" t="s">
+        <v>136</v>
+      </c>
+      <c r="H95" t="s">
+        <v>128</v>
+      </c>
+      <c r="J95" s="14">
+        <v>1</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M95" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J96" s="14">
+        <v>2</v>
+      </c>
+      <c r="K96" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M96" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E97" s="41">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>138</v>
+      </c>
+      <c r="J97" s="14">
+        <v>1</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M97" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J98" s="14">
+        <v>2</v>
+      </c>
+      <c r="K98" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M98" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J99" s="14">
+        <v>3</v>
+      </c>
+      <c r="K99" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M99" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E100" s="42">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>139</v>
+      </c>
+      <c r="J100" s="14">
+        <v>1</v>
+      </c>
+      <c r="K100" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M100" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J101" s="14">
+        <v>2</v>
+      </c>
+      <c r="K101" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M101" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J102" s="14">
+        <v>3</v>
+      </c>
+      <c r="K102" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M102" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J103" s="14">
+        <v>4</v>
+      </c>
+      <c r="K103" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L103" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M103" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E104" s="43">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>164</v>
+      </c>
+      <c r="H104" t="s">
+        <v>122</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>140</v>
+      </c>
+      <c r="M104" s="23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>2</v>
+      </c>
+      <c r="K105" t="s">
+        <v>141</v>
+      </c>
+      <c r="M105" s="23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106" t="s">
+        <v>142</v>
+      </c>
+      <c r="M106" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107" t="s">
+        <v>125</v>
+      </c>
+      <c r="M107" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>5</v>
+      </c>
+      <c r="K108" t="s">
+        <v>110</v>
+      </c>
+      <c r="M108" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E109" s="44">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>144</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>143</v>
+      </c>
+      <c r="M109" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>2</v>
+      </c>
+      <c r="K110" t="s">
+        <v>110</v>
+      </c>
+      <c r="M110" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>3</v>
+      </c>
+      <c r="K111" t="s">
+        <v>125</v>
+      </c>
+      <c r="M111" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112" t="s">
+        <v>13</v>
+      </c>
+      <c r="M112" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E113" s="45">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>145</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>143</v>
+      </c>
+      <c r="M113" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114" t="s">
+        <v>110</v>
+      </c>
+      <c r="M114" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>3</v>
+      </c>
+      <c r="K115" t="s">
+        <v>125</v>
+      </c>
+      <c r="M115" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="K116" t="s">
+        <v>13</v>
+      </c>
+      <c r="M116" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E117" s="11">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>146</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>143</v>
+      </c>
+      <c r="M117" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118" t="s">
+        <v>110</v>
+      </c>
+      <c r="M118" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119" t="s">
+        <v>125</v>
+      </c>
+      <c r="M119" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120" t="s">
+        <v>13</v>
+      </c>
+      <c r="M120" s="23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E121" s="11">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>147</v>
+      </c>
+      <c r="H121" t="s">
+        <v>149</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>13</v>
+      </c>
+      <c r="M121" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122" t="s">
+        <v>125</v>
+      </c>
+      <c r="M122" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E123" s="11">
+        <v>16</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G123" t="s">
+        <v>156</v>
+      </c>
+      <c r="H123" t="s">
+        <v>155</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123" t="s">
+        <v>154</v>
+      </c>
+      <c r="M123" s="31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124" t="s">
+        <v>13</v>
+      </c>
+      <c r="M124" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E125" s="11">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>152</v>
+      </c>
+      <c r="H125" t="s">
+        <v>177</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125" t="s">
+        <v>153</v>
+      </c>
+      <c r="M125" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E126" s="11">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s">
+        <v>158</v>
+      </c>
+      <c r="H126" t="s">
+        <v>157</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
+        <v>13</v>
+      </c>
+      <c r="M126" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E127" s="11">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H127" t="s">
+        <v>161</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
+        <v>153</v>
+      </c>
+      <c r="M127" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E128" s="11">
+        <v>20</v>
+      </c>
+      <c r="G128" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="H128" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="50">
-        <v>0</v>
-      </c>
-      <c r="G51" t="s">
-        <v>96</v>
-      </c>
-      <c r="J51" s="26">
-        <v>1</v>
-      </c>
-      <c r="K51" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M51" s="40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J52" s="26">
-        <v>2</v>
-      </c>
-      <c r="K52" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="M52" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J53" s="26">
-        <v>3</v>
-      </c>
-      <c r="K53" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M53" s="47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E54" s="49">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>107</v>
-      </c>
-      <c r="J54" s="26">
-        <v>1</v>
-      </c>
-      <c r="K54" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M54" s="37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J55" s="26">
-        <v>2</v>
-      </c>
-      <c r="K55" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M55" s="47">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E56" s="48">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>112</v>
-      </c>
-      <c r="J56" s="26">
-        <v>1</v>
-      </c>
-      <c r="K56" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="M56" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J57" s="26">
-        <v>2</v>
-      </c>
-      <c r="K57" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M57" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E58" s="51">
-        <v>3</v>
-      </c>
-      <c r="G58" t="s">
-        <v>114</v>
-      </c>
-      <c r="J58" s="26">
-        <v>1</v>
-      </c>
-      <c r="K58" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M58" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E59" s="52">
-        <v>4</v>
-      </c>
-      <c r="G59" t="s">
-        <v>120</v>
-      </c>
-      <c r="J59" s="26">
-        <v>1</v>
-      </c>
-      <c r="K59" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M59" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J60" s="26">
-        <v>2</v>
-      </c>
-      <c r="K60" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M60" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J61" s="26">
-        <v>3</v>
-      </c>
-      <c r="K61" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M61" s="37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J62" s="26">
-        <v>4</v>
-      </c>
-      <c r="K62" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M62" s="37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J63" s="26">
-        <v>5</v>
-      </c>
-      <c r="K63" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="L63" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="M63" s="37">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E64" s="53">
-        <v>5</v>
-      </c>
-      <c r="G64" t="s">
-        <v>118</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J64" s="26">
-        <v>1</v>
-      </c>
-      <c r="K64" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="M64" s="37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J65" s="26">
-        <v>2</v>
-      </c>
-      <c r="K65" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M65" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J66" s="26">
-        <v>3</v>
-      </c>
-      <c r="K66" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="M66" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E67" s="54">
-        <v>6</v>
-      </c>
-      <c r="G67" t="s">
-        <v>124</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J67" s="26">
-        <v>1</v>
-      </c>
-      <c r="K67" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="M67" s="37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J68" s="26">
-        <v>2</v>
-      </c>
-      <c r="K68" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M68" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J69" s="26">
-        <v>3</v>
-      </c>
-      <c r="K69" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="M69" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E70" s="55">
-        <v>7</v>
-      </c>
-      <c r="G70" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="H70" t="s">
-        <v>86</v>
-      </c>
-      <c r="J70" s="26">
-        <v>1</v>
-      </c>
-      <c r="K70" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="M70" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E71" s="56">
-        <v>8</v>
-      </c>
-      <c r="G71" t="s">
-        <v>137</v>
-      </c>
-      <c r="H71" t="s">
-        <v>129</v>
-      </c>
-      <c r="J71" s="26">
-        <v>1</v>
-      </c>
-      <c r="K71" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="M71" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J72" s="26">
-        <v>2</v>
-      </c>
-      <c r="K72" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="M72" s="37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E73" s="57">
-        <v>9</v>
-      </c>
-      <c r="G73" t="s">
-        <v>139</v>
-      </c>
-      <c r="J73" s="26">
-        <v>1</v>
-      </c>
-      <c r="K73" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="M73" s="37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J74" s="26">
-        <v>2</v>
-      </c>
-      <c r="K74" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M74" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J75" s="26">
-        <v>3</v>
-      </c>
-      <c r="K75" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="M75" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E76" s="58">
-        <v>10</v>
-      </c>
-      <c r="G76" t="s">
-        <v>140</v>
-      </c>
-      <c r="J76" s="26">
-        <v>1</v>
-      </c>
-      <c r="K76" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M76" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J77" s="26">
-        <v>2</v>
-      </c>
-      <c r="K77" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="M77" s="37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J78" s="26">
-        <v>3</v>
-      </c>
-      <c r="K78" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="M78" s="37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J79" s="26">
-        <v>4</v>
-      </c>
-      <c r="K79" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="L79" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="M79" s="37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E80" s="59">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128" t="s">
         <v>165</v>
       </c>
-      <c r="H80" t="s">
-        <v>123</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" t="s">
-        <v>141</v>
-      </c>
-      <c r="M80" s="37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J81">
-        <v>2</v>
-      </c>
-      <c r="K81" t="s">
-        <v>142</v>
-      </c>
-      <c r="M81" s="37">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J82">
-        <v>3</v>
-      </c>
-      <c r="K82" t="s">
-        <v>143</v>
-      </c>
-      <c r="M82" s="37">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J83">
-        <v>4</v>
-      </c>
-      <c r="K83" t="s">
-        <v>126</v>
-      </c>
-      <c r="M83" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J84">
-        <v>5</v>
-      </c>
-      <c r="K84" t="s">
-        <v>111</v>
-      </c>
-      <c r="M84" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E85" s="60">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>145</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-      <c r="K85" t="s">
-        <v>144</v>
-      </c>
-      <c r="M85" s="47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J86">
-        <v>2</v>
-      </c>
-      <c r="K86" t="s">
-        <v>111</v>
-      </c>
-      <c r="M86" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J87">
-        <v>3</v>
-      </c>
-      <c r="K87" t="s">
-        <v>126</v>
-      </c>
-      <c r="M87" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J88">
-        <v>4</v>
-      </c>
-      <c r="K88" t="s">
-        <v>13</v>
-      </c>
-      <c r="M88" s="37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E89" s="61">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s">
-        <v>146</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89" t="s">
-        <v>144</v>
-      </c>
-      <c r="M89" s="47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J90">
-        <v>2</v>
-      </c>
-      <c r="K90" t="s">
-        <v>111</v>
-      </c>
-      <c r="M90" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J91">
-        <v>3</v>
-      </c>
-      <c r="K91" t="s">
-        <v>126</v>
-      </c>
-      <c r="M91" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J92">
-        <v>4</v>
-      </c>
-      <c r="K92" t="s">
-        <v>13</v>
-      </c>
-      <c r="M92" s="37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E93" s="11">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>147</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
-      </c>
-      <c r="K93" t="s">
-        <v>144</v>
-      </c>
-      <c r="M93" s="47">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J94">
-        <v>2</v>
-      </c>
-      <c r="K94" t="s">
-        <v>111</v>
-      </c>
-      <c r="M94" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J95">
-        <v>3</v>
-      </c>
-      <c r="K95" t="s">
-        <v>126</v>
-      </c>
-      <c r="M95" s="37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J96">
-        <v>4</v>
-      </c>
-      <c r="K96" t="s">
-        <v>13</v>
-      </c>
-      <c r="M96" s="37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E97" s="11">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>148</v>
-      </c>
-      <c r="H97" t="s">
-        <v>150</v>
-      </c>
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97" t="s">
-        <v>13</v>
-      </c>
-      <c r="M97" s="47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J98">
-        <v>2</v>
-      </c>
-      <c r="K98" t="s">
-        <v>126</v>
-      </c>
-      <c r="M98" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E99" s="11">
-        <v>16</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G99" t="s">
-        <v>157</v>
-      </c>
-      <c r="H99" t="s">
-        <v>156</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99" t="s">
-        <v>155</v>
-      </c>
-      <c r="M99" s="47">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="J100">
-        <v>2</v>
-      </c>
-      <c r="K100" t="s">
-        <v>13</v>
-      </c>
-      <c r="M100" s="47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E101" s="11">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>153</v>
-      </c>
-      <c r="H101" t="s">
-        <v>179</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101" t="s">
-        <v>154</v>
-      </c>
-      <c r="M101" s="47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E102" s="11">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>159</v>
-      </c>
-      <c r="H102" t="s">
-        <v>158</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102" t="s">
-        <v>13</v>
-      </c>
-      <c r="M102" s="47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E103" s="11">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>163</v>
-      </c>
-      <c r="H103" t="s">
-        <v>162</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="K103" t="s">
-        <v>154</v>
-      </c>
-      <c r="M103" s="47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E104" s="11">
-        <v>20</v>
-      </c>
-      <c r="G104" s="64" t="s">
-        <v>174</v>
-      </c>
-      <c r="H104" t="s">
-        <v>168</v>
-      </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104" t="s">
-        <v>166</v>
-      </c>
-      <c r="M104" s="47" t="s">
+      <c r="M128" s="31" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3676,91 +5523,487 @@
   <mergeCells count="1">
     <mergeCell ref="R7:R9"/>
   </mergeCells>
-  <conditionalFormatting sqref="M1:M31 M33:M1048576">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+  <conditionalFormatting sqref="M1:M9 M50:M59 M37:M43 M11:M13 M15:M17 M19:M29 M45:M47 M61:M62 M65:M1048576">
+    <cfRule type="cellIs" dxfId="164" priority="151" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="153" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="154" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="155" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="156" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="157" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="158" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="159" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="160" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="161" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="162" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="163" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="16" priority="29">
+    <cfRule type="containsBlanks" dxfId="152" priority="164">
       <formula>LEN(TRIM(M1))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="165" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+  <conditionalFormatting sqref="M48">
+    <cfRule type="cellIs" dxfId="150" priority="136" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="138" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="139" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="140" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="141" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="142" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="143" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="144" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="145" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="146" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="148" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="1" priority="14">
-      <formula>LEN(TRIM(M32))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="containsBlanks" dxfId="138" priority="149">
+      <formula>LEN(TRIM(M48))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="150" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M33 M35:M36">
+    <cfRule type="cellIs" dxfId="136" priority="121" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="123" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="124" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="125" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="126" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="127" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="129" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="130" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="131" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="132" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="133" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="124" priority="134">
+      <formula>LEN(TRIM(M30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="135" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M63:M64">
+    <cfRule type="cellIs" dxfId="122" priority="106" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="108" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="109" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="110" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="111" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="112" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="113" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="114" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="117" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="110" priority="119">
+      <formula>LEN(TRIM(M63))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="120" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="cellIs" dxfId="108" priority="91" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="93" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="94" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="95" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="96" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="97" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="98" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="96" priority="104">
+      <formula>LEN(TRIM(M10))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="105" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="cellIs" dxfId="94" priority="76" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="78" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="79" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="80" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="81" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="88" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="82" priority="89">
+      <formula>LEN(TRIM(M14))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="90" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="cellIs" dxfId="80" priority="61" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="63" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="64" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="65" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="66" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="67" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="68" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="69" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="70" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="68" priority="74">
+      <formula>LEN(TRIM(M18))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44">
+    <cfRule type="cellIs" dxfId="66" priority="46" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="48" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="49" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="50" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="55" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="54" priority="59">
+      <formula>LEN(TRIM(M44))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="60" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="cellIs" dxfId="52" priority="31" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="40" priority="44">
+      <formula>LEN(TRIM(M34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="20" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="21" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="22" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="26" priority="29">
+      <formula>LEN(TRIM(M49))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M60">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="12" priority="14">
+      <formula>LEN(TRIM(M60))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3770,7 +6013,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{45ABD8B8-81AF-435D-9D2A-4F68D85E5B56}">
+          <x14:cfRule type="containsText" priority="152" operator="containsText" id="{45ABD8B8-81AF-435D-9D2A-4F68D85E5B56}">
             <xm:f>NOT(ISERROR(SEARCH(12,M1)))</xm:f>
             <xm:f>12</xm:f>
             <x14:dxf>
@@ -3781,11 +6024,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>M1:M31 M33:M1048576</xm:sqref>
+          <xm:sqref>M1:M9 M50:M59 M37:M43 M11:M13 M15:M17 M19:M29 M45:M47 M61:M62 M65:M1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{5F1D4E2F-5AD5-40B8-8BDB-496D974202CE}">
-            <xm:f>NOT(ISERROR(SEARCH(12,M32)))</xm:f>
+          <x14:cfRule type="containsText" priority="137" operator="containsText" id="{5F1D4E2F-5AD5-40B8-8BDB-496D974202CE}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M48)))</xm:f>
             <xm:f>12</xm:f>
             <x14:dxf>
               <fill>
@@ -3795,7 +6038,133 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>M32</xm:sqref>
+          <xm:sqref>M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="122" operator="containsText" id="{75071480-3EA4-4BBC-9705-88D4BD98120B}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M30)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M30:M33 M35:M36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="107" operator="containsText" id="{998875DC-086B-47B9-B03E-049A404133AA}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M63)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M63:M64</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="92" operator="containsText" id="{04FAC597-016E-49F6-BFD7-41E6E46EC464}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M10)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="77" operator="containsText" id="{4F34CCD3-A0C4-4802-B8B0-7CA15927E782}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M14)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="62" operator="containsText" id="{EF7B2CA6-3A31-451C-957D-3FAF0EE2D4DC}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M18)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="47" operator="containsText" id="{4982BEAB-6D0E-4E14-B74E-C555B5E0CE16}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M44)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="32" operator="containsText" id="{1E91C519-9EC5-43A9-9740-166AAE3F7332}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M34)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{BF2CC6B4-2283-4AD8-B69E-91E22D72A70A}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M49)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{4F7DC660-2183-4B12-8CD3-2911205194E0}">
+            <xm:f>NOT(ISERROR(SEARCH(12,M60)))</xm:f>
+            <xm:f>12</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M60</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
